--- a/CSharpProject/CSharpProject/bin/Debug/netcoreapp3.1/Raport.xlsx
+++ b/CSharpProject/CSharpProject/bin/Debug/netcoreapp3.1/Raport.xlsx
@@ -129,14 +129,14 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -149,12 +149,20 @@
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -452,7 +460,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G11"/>
+  <x:dimension ref="A1:G12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -500,10 +508,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="3">
+        <x:v>44050.749595544</x:v>
+      </x:c>
+      <x:c r="F2" s="4">
         <x:v>44053</x:v>
-      </x:c>
-      <x:c r="F2" s="4">
-        <x:v>44050.749595544</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s"/>
     </x:row>
@@ -521,10 +529,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="3">
+        <x:v>44050.7515493056</x:v>
+      </x:c>
+      <x:c r="F3" s="4">
         <x:v>44053</x:v>
-      </x:c>
-      <x:c r="F3" s="4">
-        <x:v>44050.7515493056</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s"/>
     </x:row>
@@ -542,10 +550,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="3">
+        <x:v>44050.7549878472</x:v>
+      </x:c>
+      <x:c r="F4" s="4">
         <x:v>44062</x:v>
-      </x:c>
-      <x:c r="F4" s="4">
-        <x:v>44050.7549878472</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s"/>
     </x:row>
@@ -563,10 +571,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="3">
+        <x:v>44050.7588390046</x:v>
+      </x:c>
+      <x:c r="F5" s="4">
         <x:v>44053</x:v>
-      </x:c>
-      <x:c r="F5" s="4">
-        <x:v>44050.7588390046</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s"/>
     </x:row>
@@ -584,10 +592,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E6" s="3">
+        <x:v>44050.7602613542</x:v>
+      </x:c>
+      <x:c r="F6" s="4">
         <x:v>44053</x:v>
-      </x:c>
-      <x:c r="F6" s="4">
-        <x:v>44050.7602613542</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s"/>
     </x:row>
@@ -605,10 +613,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E7" s="3">
+        <x:v>44050.7712545139</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
         <x:v>44053</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>44050.7712545139</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s"/>
     </x:row>
@@ -626,12 +634,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="3">
+        <x:v>44051.5210340278</x:v>
+      </x:c>
+      <x:c r="F8" s="4">
         <x:v>44053</x:v>
       </x:c>
-      <x:c r="F8" s="4">
-        <x:v>44051.5210340278</x:v>
-      </x:c>
-      <x:c r="G8" s="3">
+      <x:c r="G8" s="4">
         <x:v>44054</x:v>
       </x:c>
     </x:row>
@@ -649,10 +657,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="3">
+        <x:v>44051.5226274306</x:v>
+      </x:c>
+      <x:c r="F9" s="4">
         <x:v>44060</x:v>
-      </x:c>
-      <x:c r="F9" s="4">
-        <x:v>44051.5226274306</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s"/>
     </x:row>
@@ -670,21 +678,53 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E10" s="3">
+        <x:v>44051.5287458796</x:v>
+      </x:c>
+      <x:c r="F10" s="4">
         <x:v>44055</x:v>
       </x:c>
-      <x:c r="F10" s="4">
-        <x:v>44051.5287458796</x:v>
-      </x:c>
       <x:c r="G10" s="2" t="s"/>
     </x:row>
     <x:row r="11" spans="1:7" s="2" customFormat="1">
-      <x:c r="A11" s="2" t="s"/>
-      <x:c r="B11" s="2" t="s"/>
-      <x:c r="C11" s="2" t="s"/>
-      <x:c r="D11" s="2" t="s"/>
-      <x:c r="E11" s="2" t="s"/>
-      <x:c r="F11" s="2" t="s"/>
+      <x:c r="A11" s="2" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>44054.0149185532</x:v>
+      </x:c>
+      <x:c r="F11" s="4">
+        <x:v>44063</x:v>
+      </x:c>
       <x:c r="G11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E12" s="5">
+        <x:v>44054.0151184838</x:v>
+      </x:c>
+      <x:c r="F12" s="6">
+        <x:v>44058</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
